--- a/data/trans_bre/P41A_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P41A_R2-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.78258296037253</v>
+        <v>-15.59908589613925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.79709559122027</v>
+        <v>-13.21168253413424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.97160328075401</v>
+        <v>-11.46878415252493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-18.49072566161495</v>
+        <v>-19.08376374118331</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3595461554347995</v>
+        <v>-0.3472106286868666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2931577434049292</v>
+        <v>-0.2835011587006801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.236591735045389</v>
+        <v>-0.2434061296469278</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4130630665792577</v>
+        <v>-0.4198588099089336</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.764846723353782</v>
+        <v>-5.544764243670126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.934767335655605</v>
+        <v>-5.097972334016528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.174729012159728</v>
+        <v>-3.350268209892436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.07069486204933</v>
+        <v>-4.137271593238127</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1462421677097841</v>
+        <v>-0.1403966784780167</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1151969344958024</v>
+        <v>-0.1185064272758884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.07369741044595518</v>
+        <v>-0.07960315667972166</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1041670525901346</v>
+        <v>-0.112052398530246</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-8.748876877420392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.721502991563312</v>
+        <v>-7.721502991563317</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2056712930143574</v>
@@ -749,7 +749,7 @@
         <v>-0.1830399331441918</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1746886349720823</v>
+        <v>-0.1746886349720824</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.91577597344054</v>
+        <v>-14.55993828325913</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-17.77128378113501</v>
+        <v>-17.85608240424504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.3430569471422</v>
+        <v>-13.13449690282458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.70206455574922</v>
+        <v>-13.49748188358823</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2781706906895125</v>
+        <v>-0.2732476775736248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3236604895636337</v>
+        <v>-0.3221481954762444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2662648424244698</v>
+        <v>-0.2601868560965769</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2739667111383815</v>
+        <v>-0.2812315413267586</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.139185273423895</v>
+        <v>-6.226239409241137</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-8.566640080480896</v>
+        <v>-8.621554291863177</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-4.103211870622101</v>
+        <v>-4.636846716726216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.459506498960493</v>
+        <v>-2.459106201943201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1213631004041896</v>
+        <v>-0.1271876112978146</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1712570905452816</v>
+        <v>-0.1696714071322454</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.09233847715335913</v>
+        <v>-0.1018693214181976</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06030091947186599</v>
+        <v>-0.05899934699752651</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-9.607382168147144</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.410817774956554</v>
+        <v>-3.410817774956532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1274894966205531</v>
@@ -849,7 +849,7 @@
         <v>-0.1915833043484078</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.08354298683054671</v>
+        <v>-0.08354298683054619</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.0752313929735</v>
+        <v>-10.57280586417967</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.09956385916736</v>
+        <v>-14.83642389291099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.80857787102126</v>
+        <v>-14.16381030556654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.33132060897152</v>
+        <v>-8.524126125335483</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2063259776331279</v>
+        <v>-0.194894689969639</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2887407372024342</v>
+        <v>-0.2859496800391507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.281469255112118</v>
+        <v>-0.27234416588435</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1909912676889405</v>
+        <v>-0.1946327603362993</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.595756453441074</v>
+        <v>-2.421907673084704</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.981422111228857</v>
+        <v>-5.511258271037308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.927662786541118</v>
+        <v>-4.215302903888551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.784307196978671</v>
+        <v>1.442051091462964</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.05237294755072695</v>
+        <v>-0.04686065732537321</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1077247195255314</v>
+        <v>-0.1134100202119466</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1006358837534766</v>
+        <v>-0.08579583893005192</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04604925443603512</v>
+        <v>0.03641334945530114</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.305664934166085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-7.515671722494127</v>
+        <v>-7.51567172249411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.03411822499097299</v>
@@ -949,7 +949,7 @@
         <v>-0.05644394374848905</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1854553192208305</v>
+        <v>-0.1854553192208302</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.182439931958701</v>
+        <v>-8.845897781500483</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-16.00629657131782</v>
+        <v>-16.11545247392995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.999373523035372</v>
+        <v>-8.788070625339497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-12.55211785080975</v>
+        <v>-12.75725272330275</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1580066553952895</v>
+        <v>-0.1585502744375553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.289254521165522</v>
+        <v>-0.2938272671933284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2003470571068807</v>
+        <v>-0.1999514914927436</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2905488516760683</v>
+        <v>-0.2931999444130945</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.058067676194693</v>
+        <v>4.896379460372254</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.358441058688282</v>
+        <v>-2.549773217532063</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.016020071655412</v>
+        <v>3.581448029648699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.819581532574779</v>
+        <v>-2.315964000977321</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1197356685555233</v>
+        <v>0.09247638039308004</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04620719903369366</v>
+        <v>-0.04888015233915091</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1092147421884432</v>
+        <v>0.09874599306234985</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.07430118463835822</v>
+        <v>-0.06094253734942331</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-7.515114995273986</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.865552513263262</v>
+        <v>-6.865552513263268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1932051758888618</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1624098619464608</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1650099961928399</v>
+        <v>-0.16500999619284</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.18290135063748</v>
+        <v>-12.27950108877747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.05535820617158</v>
+        <v>-13.35123362571169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.821904169409622</v>
+        <v>-9.953729304187688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.442703338735127</v>
+        <v>-9.720238109305923</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2354772406109323</v>
+        <v>-0.2398030694912279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.257901445365709</v>
+        <v>-0.2614034653696017</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2079089797601071</v>
+        <v>-0.2074014815114196</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2175652330829845</v>
+        <v>-0.2262834900321573</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-7.348179335198224</v>
+        <v>-7.516446149897756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.214120265851834</v>
+        <v>-8.2234578757887</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.064574220844047</v>
+        <v>-4.931238480175031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.963599272179171</v>
+        <v>-4.184775796249641</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1483585889032098</v>
+        <v>-0.1536085505583174</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1706856912603949</v>
+        <v>-0.1686411928716648</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1128383796520587</v>
+        <v>-0.1090858001414555</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1006020108338916</v>
+        <v>-0.1047541956621145</v>
       </c>
     </row>
     <row r="19">
